--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>6.056105616912687</v>
+        <v>26.84327895064001</v>
       </c>
       <c r="C2">
-        <v>0.004510924896641989</v>
+        <v>0.01999436981214286</v>
       </c>
       <c r="D2">
-        <v>1.838203092024461</v>
+        <v>8.147711002486803</v>
       </c>
       <c r="E2">
-        <v>0.9532291711959237</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F2">
-        <v>0.4914559111103173</v>
+        <v>2.178345119516002</v>
       </c>
       <c r="G2">
-        <v>14.9498936084892</v>
+        <v>66.2643932916819</v>
       </c>
       <c r="H2">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I2">
-        <v>24.34232086241953</v>
+        <v>107.895692471265</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>6.068963590621635</v>
+        <v>26.9002710503229</v>
       </c>
       <c r="C3">
-        <v>0.005187563631138288</v>
+        <v>0.0229935252839643</v>
       </c>
       <c r="D3">
-        <v>1.838203092024461</v>
+        <v>8.147711002486803</v>
       </c>
       <c r="E3">
-        <v>0.9946739177696584</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F3">
-        <v>0.505910496731209</v>
+        <v>2.242414093619413</v>
       </c>
       <c r="G3">
-        <v>12.63008253130984</v>
+        <v>55.98198743607604</v>
       </c>
       <c r="H3">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I3">
-        <v>22.09194372987824</v>
+        <v>97.92104788378461</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>6.197543327711072</v>
+        <v>27.47019204715179</v>
       </c>
       <c r="C4">
-        <v>0.003157647427649393</v>
+        <v>0.01399605886850001</v>
       </c>
       <c r="D4">
-        <v>1.225468728016308</v>
+        <v>5.431807334991201</v>
       </c>
       <c r="E4">
-        <v>0.7874501849009798</v>
+        <v>3.490319738480018</v>
       </c>
       <c r="F4">
-        <v>0.3661828357292559</v>
+        <v>1.623080677286432</v>
       </c>
       <c r="G4">
-        <v>8.505973949657644</v>
+        <v>37.70215480388795</v>
       </c>
       <c r="H4">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I4">
-        <v>17.11839169863644</v>
+        <v>75.8761145561183</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>7.187607303299774</v>
+        <v>31.85858372273411</v>
       </c>
       <c r="C5">
-        <v>0.006991933589795082</v>
+        <v>0.03099127320882145</v>
       </c>
       <c r="D5">
-        <v>2.450937456032615</v>
+        <v>10.8636146699824</v>
       </c>
       <c r="E5">
-        <v>0.7460054383272446</v>
+        <v>3.30661869961265</v>
       </c>
       <c r="F5">
-        <v>0.5300014727660284</v>
+        <v>2.349195717125099</v>
       </c>
       <c r="G5">
-        <v>9.5370010950707</v>
+        <v>42.27211296193497</v>
       </c>
       <c r="H5">
-        <v>0.08153756298382975</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I5">
-        <v>20.54008226206999</v>
+        <v>91.04252678322908</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>7.547630567150209</v>
+        <v>33.45436251385496</v>
       </c>
       <c r="C6">
-        <v>0.004285378651809889</v>
+        <v>0.01899465132153572</v>
       </c>
       <c r="D6">
-        <v>2.314774264030805</v>
+        <v>10.26008052165004</v>
       </c>
       <c r="E6">
-        <v>0.7874501849009798</v>
+        <v>3.490319738480018</v>
       </c>
       <c r="F6">
-        <v>0.5540924488008482</v>
+        <v>2.455977340630786</v>
       </c>
       <c r="G6">
-        <v>8.763730736010912</v>
+        <v>38.8446443433997</v>
       </c>
       <c r="H6">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I6">
-        <v>20.02088611733586</v>
+        <v>88.74122495251567</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>7.444766777478652</v>
+        <v>32.99842571639189</v>
       </c>
       <c r="C7">
-        <v>0.008796303548451878</v>
+        <v>0.03898902113367859</v>
       </c>
       <c r="D7">
-        <v>1.770121496023556</v>
+        <v>7.845943928320622</v>
       </c>
       <c r="E7">
-        <v>0.9946739177696584</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F7">
-        <v>0.5300014727660284</v>
+        <v>2.349195717125099</v>
       </c>
       <c r="G7">
-        <v>8.505973949657644</v>
+        <v>37.70215480388795</v>
       </c>
       <c r="H7">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I7">
-        <v>19.30325645503429</v>
+        <v>85.56037996285473</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>8.704848200955182</v>
+        <v>38.58365148531484</v>
       </c>
       <c r="C8">
-        <v>0.009924034772612375</v>
+        <v>0.0439876135867143</v>
       </c>
       <c r="D8">
-        <v>2.450937456032615</v>
+        <v>10.8636146699824</v>
       </c>
       <c r="E8">
-        <v>1.036118664343395</v>
+        <v>4.592525971684236</v>
       </c>
       <c r="F8">
-        <v>0.3950920069710395</v>
+        <v>1.751218625493256</v>
       </c>
       <c r="G8">
-        <v>6.443919658831549</v>
+        <v>28.56223848779391</v>
       </c>
       <c r="H8">
-        <v>0.1141525881773616</v>
+        <v>0.5059736340834409</v>
       </c>
       <c r="I8">
-        <v>19.15499261008376</v>
+        <v>84.90321048793881</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>10.0806513878122</v>
+        <v>44.68180615138381</v>
       </c>
       <c r="C9">
-        <v>0.002706554937985194</v>
+        <v>0.01199662188728572</v>
       </c>
       <c r="D9">
-        <v>1.497795112019932</v>
+        <v>6.638875631655914</v>
       </c>
       <c r="E9">
-        <v>0.9117844246221872</v>
+        <v>4.041422855082126</v>
       </c>
       <c r="F9">
-        <v>0.2939099076247977</v>
+        <v>1.302735806769373</v>
       </c>
       <c r="G9">
-        <v>5.412892513418501</v>
+        <v>23.99228032974685</v>
       </c>
       <c r="I9">
-        <v>18.19973990043561</v>
+        <v>80.66911739652535</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>9.630622307999154</v>
+        <v>42.68708266248272</v>
       </c>
       <c r="C10">
-        <v>0.001578823713824696</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D10">
-        <v>1.429713516019026</v>
+        <v>6.337108557489735</v>
       </c>
       <c r="E10">
-        <v>1.492010876654489</v>
+        <v>6.6132373992253</v>
       </c>
       <c r="F10">
-        <v>0.2360915651412308</v>
+        <v>1.046459910355726</v>
       </c>
       <c r="G10">
-        <v>2.835324649885884</v>
+        <v>12.56738493462932</v>
       </c>
       <c r="H10">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I10">
-        <v>15.64164925201038</v>
+        <v>69.33055344134326</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>6.956163776538776</v>
+        <v>30.83272592844215</v>
       </c>
       <c r="C11">
-        <v>0.001353277468992597</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D11">
-        <v>1.157387132015402</v>
+        <v>5.130040260825022</v>
       </c>
       <c r="E11">
-        <v>1.243342397212074</v>
+        <v>5.511031166021081</v>
       </c>
       <c r="F11">
-        <v>0.1060002945532057</v>
+        <v>0.4698391434250198</v>
       </c>
       <c r="G11">
-        <v>4.381865368005456</v>
+        <v>19.42232217169985</v>
       </c>
       <c r="H11">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I11">
-        <v>13.86241975839067</v>
+        <v>61.44423892908298</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>6.248975222546849</v>
+        <v>27.69816044588333</v>
       </c>
       <c r="C12">
-        <v>0.00405983240697779</v>
+        <v>0.01799493283092858</v>
       </c>
       <c r="D12">
-        <v>1.02122394001359</v>
+        <v>4.526506112492672</v>
       </c>
       <c r="E12">
-        <v>1.07756341091713</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F12">
-        <v>0.1011820993462418</v>
+        <v>0.4484828187238827</v>
       </c>
       <c r="G12">
-        <v>2.319811077179358</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="H12">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I12">
-        <v>10.78912309500691</v>
+        <v>47.82205912381442</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>4.551722692966225</v>
+        <v>20.17520328774219</v>
       </c>
       <c r="C13">
-        <v>0.0009021849793283976</v>
+        <v>0.003998873962428573</v>
       </c>
       <c r="D13">
-        <v>0.8850607480117781</v>
+        <v>3.922971964160311</v>
       </c>
       <c r="E13">
-        <v>1.07756341091713</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F13">
-        <v>0.07709112331142232</v>
+        <v>0.3417011952181963</v>
       </c>
       <c r="G13">
-        <v>2.062054290826096</v>
+        <v>9.139916316094048</v>
       </c>
       <c r="H13">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I13">
-        <v>8.670701963608746</v>
+        <v>38.43230059545498</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>2.340151215027833</v>
+        <v>10.37256214228553</v>
       </c>
       <c r="C14">
-        <v>0.0004510924896641988</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D14">
-        <v>0.34040798000453</v>
+        <v>1.508835370830889</v>
       </c>
       <c r="E14">
-        <v>0.7045606917535082</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F14">
-        <v>0.05781834248356674</v>
+        <v>0.2562758964136472</v>
       </c>
       <c r="G14">
-        <v>0.7732703590597865</v>
+        <v>3.427468618535268</v>
       </c>
       <c r="I14">
-        <v>4.216659680818888</v>
+        <v>18.69005912579182</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.902980108923732</v>
+        <v>8.434830753067356</v>
       </c>
       <c r="C15">
-        <v>0.001578823713824696</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D15">
-        <v>0.5446527680072482</v>
+        <v>2.414136593329424</v>
       </c>
       <c r="E15">
-        <v>0.2486684794424146</v>
+        <v>1.102206233204217</v>
       </c>
       <c r="F15">
-        <v>0.1445458562089168</v>
+        <v>0.6406897410341179</v>
       </c>
       <c r="G15">
-        <v>1.28878393176631</v>
+        <v>5.71244769755878</v>
       </c>
       <c r="I15">
-        <v>4.131209968062446</v>
+        <v>18.31130904762814</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.555814818782241</v>
+        <v>6.896044061629393</v>
       </c>
       <c r="C16">
-        <v>0.001353277468992597</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="F16">
-        <v>0.06263653769053064</v>
+        <v>0.2776322211147844</v>
       </c>
       <c r="G16">
-        <v>1.28878393176631</v>
+        <v>5.71244769755878</v>
       </c>
       <c r="I16">
-        <v>2.908588565708074</v>
+        <v>12.8921222912466</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.8486262647903132</v>
+        <v>3.761478579070578</v>
       </c>
       <c r="C17">
-        <v>0.0002255462448320994</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D17">
-        <v>0.204244788002718</v>
+        <v>0.9053012224985337</v>
       </c>
       <c r="F17">
-        <v>0.04336375686267505</v>
+        <v>0.1922069223102354</v>
       </c>
       <c r="G17">
-        <v>0.515513572706524</v>
+        <v>2.284979079023512</v>
       </c>
       <c r="I17">
-        <v>1.611973928607062</v>
+        <v>7.144965521393467</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.6686146328650951</v>
+        <v>2.963589183510151</v>
       </c>
       <c r="C18">
-        <v>0.0002255462448320994</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D18">
-        <v>0.06808159600090602</v>
+        <v>0.301767074166178</v>
       </c>
       <c r="F18">
-        <v>0.02409097603481947</v>
+        <v>0.1067816235056863</v>
       </c>
       <c r="G18">
-        <v>1.031027145413048</v>
+        <v>4.569958158047024</v>
       </c>
       <c r="I18">
-        <v>1.792039896558701</v>
+        <v>7.943095757719647</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.6428986854472069</v>
+        <v>2.849604984144376</v>
       </c>
       <c r="C19">
-        <v>0.001127731224160497</v>
+        <v>0.004998592453035716</v>
       </c>
       <c r="D19">
-        <v>0.136163192001812</v>
+        <v>0.6035341483323561</v>
       </c>
       <c r="E19">
-        <v>0.1657789862949432</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F19">
-        <v>0.05781834248356674</v>
+        <v>0.2562758964136472</v>
       </c>
       <c r="G19">
-        <v>1.031027145413048</v>
+        <v>4.569958158047024</v>
       </c>
       <c r="I19">
-        <v>2.034814082864737</v>
+        <v>9.019175934859916</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>1.182933581222861</v>
+        <v>5.243273170825653</v>
       </c>
       <c r="C20">
-        <v>0.0004510924896641988</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="F20">
-        <v>0.05300014727660286</v>
+        <v>0.2349195717125099</v>
       </c>
       <c r="G20">
-        <v>2.319811077179358</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="I20">
-        <v>3.556195898168486</v>
+        <v>15.76259803512519</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>3.985971849772683</v>
+        <v>17.66755090169513</v>
       </c>
       <c r="C21">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D21">
-        <v>1.497795112019932</v>
+        <v>6.638875631655914</v>
       </c>
       <c r="E21">
-        <v>0.2486684794424146</v>
+        <v>1.102206233204217</v>
       </c>
       <c r="F21">
-        <v>0.1782732226576641</v>
+        <v>0.7901840139420789</v>
       </c>
       <c r="G21">
-        <v>2.319811077179358</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="H21">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I21">
-        <v>8.26381140500008</v>
+        <v>36.62878568702739</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>6.827584039449342</v>
+        <v>30.26280493161328</v>
       </c>
       <c r="C22">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D22">
-        <v>1.974366284026274</v>
+        <v>8.751245150819157</v>
       </c>
       <c r="E22">
-        <v>1.450566130080752</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F22">
-        <v>0.318000883659617</v>
+        <v>1.409517430275059</v>
       </c>
       <c r="G22">
-        <v>7.990460376951127</v>
+        <v>35.41717572486442</v>
       </c>
       <c r="H22">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I22">
-        <v>18.57796186549837</v>
+        <v>82.34556070112788</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>8.820569964335677</v>
+        <v>39.09658038246084</v>
       </c>
       <c r="C23">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D23">
-        <v>0.9531423440126837</v>
+        <v>4.224739038326488</v>
       </c>
       <c r="E23">
-        <v>1.326231890359546</v>
+        <v>5.878433243755819</v>
       </c>
       <c r="F23">
-        <v>0.1879096130715919</v>
+        <v>0.8328966633443535</v>
       </c>
       <c r="G23">
-        <v>4.124108581652192</v>
+        <v>18.2798326321881</v>
       </c>
       <c r="H23">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I23">
-        <v>15.44525405735972</v>
+        <v>68.46004501099982</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>8.550552516447848</v>
+        <v>37.89974628912019</v>
       </c>
       <c r="C24">
-        <v>0.00360873991731359</v>
+        <v>0.01599549584971429</v>
       </c>
       <c r="D24">
-        <v>1.633958304021744</v>
+        <v>7.24240977998827</v>
       </c>
       <c r="E24">
-        <v>1.160452904064602</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F24">
-        <v>0.2601825411760503</v>
+        <v>1.153241533861412</v>
       </c>
       <c r="G24">
-        <v>7.474946804244599</v>
+        <v>33.13219664584095</v>
       </c>
       <c r="H24">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I24">
-        <v>19.13262434766245</v>
+        <v>84.80406467612551</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>7.393334882642879</v>
+        <v>32.77045731766032</v>
       </c>
       <c r="C25">
-        <v>0.004962017386306188</v>
+        <v>0.02199380679335715</v>
       </c>
       <c r="D25">
-        <v>1.293550324017214</v>
+        <v>5.733574409157379</v>
       </c>
       <c r="E25">
-        <v>1.906458342391847</v>
+        <v>8.450247787898993</v>
       </c>
       <c r="F25">
-        <v>0.467364935075498</v>
+        <v>2.071563496010315</v>
       </c>
       <c r="G25">
-        <v>7.474946804244599</v>
+        <v>33.13219664584095</v>
       </c>
       <c r="H25">
-        <v>0.1467676133708935</v>
+        <v>0.6505375295358525</v>
       </c>
       <c r="I25">
-        <v>18.68738491912924</v>
+        <v>82.83057099289715</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>6.236117248837907</v>
+        <v>27.64116834620044</v>
       </c>
       <c r="C26">
-        <v>0.00383428616214569</v>
+        <v>0.01699521434032143</v>
       </c>
       <c r="D26">
-        <v>1.633958304021744</v>
+        <v>7.24240977998827</v>
       </c>
       <c r="E26">
-        <v>0.9532291711959237</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F26">
-        <v>0.5251832775590646</v>
+        <v>2.327839392423963</v>
       </c>
       <c r="G26">
-        <v>17.78521825837509</v>
+        <v>78.8317782263112</v>
       </c>
       <c r="H26">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I26">
-        <v>27.18646308394217</v>
+        <v>120.5021606963923</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>5.888951958696413</v>
+        <v>26.10238165476247</v>
       </c>
       <c r="C27">
-        <v>0.005864202365634585</v>
+        <v>0.02599268075578573</v>
       </c>
       <c r="D27">
-        <v>1.633958304021744</v>
+        <v>7.24240977998827</v>
       </c>
       <c r="E27">
-        <v>0.828894931474716</v>
+        <v>3.674020777347389</v>
       </c>
       <c r="F27">
-        <v>0.5733652296287035</v>
+        <v>2.541402639435335</v>
       </c>
       <c r="G27">
-        <v>16.2386775402555</v>
+        <v>71.97684098924061</v>
       </c>
       <c r="H27">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I27">
-        <v>25.20232719163624</v>
+        <v>111.7076124169823</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>5.824662090151693</v>
+        <v>25.81742115634805</v>
       </c>
       <c r="C28">
-        <v>0.002481008693153094</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="D28">
-        <v>0.9531423440126837</v>
+        <v>4.224739038326488</v>
       </c>
       <c r="E28">
-        <v>0.9946739177696584</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F28">
-        <v>0.3083644932456893</v>
+        <v>1.366804780872785</v>
       </c>
       <c r="G28">
-        <v>8.763730736010912</v>
+        <v>38.8446443433997</v>
       </c>
       <c r="H28">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I28">
-        <v>16.89597712767409</v>
+        <v>74.89027699833917</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>7.200465277008714</v>
+        <v>31.91557582241701</v>
       </c>
       <c r="C29">
-        <v>0.006991933589795082</v>
+        <v>0.03099127320882145</v>
       </c>
       <c r="D29">
-        <v>3.06367182004077</v>
+        <v>13.57951833747801</v>
       </c>
       <c r="E29">
-        <v>1.243342397212074</v>
+        <v>5.511031166021081</v>
       </c>
       <c r="F29">
-        <v>0.505910496731209</v>
+        <v>2.242414093619413</v>
       </c>
       <c r="G29">
-        <v>13.14559610401636</v>
+        <v>58.26696651509955</v>
       </c>
       <c r="H29">
-        <v>0.1304601007741276</v>
+        <v>0.5782555818096466</v>
       </c>
       <c r="I29">
-        <v>25.29643812937304</v>
+        <v>112.1247527896535</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>6.416128880763125</v>
+        <v>28.43905774176087</v>
       </c>
       <c r="C30">
-        <v>0.003383193672481491</v>
+        <v>0.01499577735910715</v>
       </c>
       <c r="D30">
-        <v>2.450937456032615</v>
+        <v>10.8636146699824</v>
       </c>
       <c r="E30">
-        <v>0.6631159451797729</v>
+        <v>2.93921662187791</v>
       </c>
       <c r="F30">
-        <v>0.5637288392147757</v>
+        <v>2.498689990033059</v>
       </c>
       <c r="G30">
-        <v>6.443919658831549</v>
+        <v>28.56223848779391</v>
       </c>
       <c r="H30">
-        <v>0.06523005038706378</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I30">
-        <v>16.60644402408138</v>
+        <v>73.60694107971209</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>7.663352330530705</v>
+        <v>33.96729141100096</v>
       </c>
       <c r="C31">
-        <v>0.005864202365634585</v>
+        <v>0.02599268075578573</v>
       </c>
       <c r="D31">
-        <v>2.38285586003171</v>
+        <v>10.56184759581623</v>
       </c>
       <c r="E31">
-        <v>0.828894931474716</v>
+        <v>3.674020777347389</v>
       </c>
       <c r="F31">
-        <v>0.4818195206963896</v>
+        <v>2.135632470113726</v>
       </c>
       <c r="G31">
-        <v>9.021487522364172</v>
+        <v>39.98713388291148</v>
       </c>
       <c r="H31">
-        <v>0.08153756298382975</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I31">
-        <v>20.46581193044716</v>
+        <v>90.7133285565766</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>8.897717806589339</v>
+        <v>39.43853298055817</v>
       </c>
       <c r="C32">
-        <v>0.008345211058787678</v>
+        <v>0.0369895841524643</v>
       </c>
       <c r="D32">
-        <v>2.246692668029898</v>
+        <v>9.958313447483864</v>
       </c>
       <c r="E32">
-        <v>0.9946739177696584</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F32">
-        <v>0.3950920069710395</v>
+        <v>1.751218625493256</v>
       </c>
       <c r="G32">
-        <v>11.5990553858968</v>
+        <v>51.41202927802902</v>
       </c>
       <c r="H32">
-        <v>0.08153756298382975</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I32">
-        <v>24.22311455929935</v>
+        <v>107.3673185871647</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>10.23494707231953</v>
+        <v>45.36571134757847</v>
       </c>
       <c r="C33">
-        <v>0.002029916203488895</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D33">
-        <v>1.089305536014496</v>
+        <v>4.828273186658849</v>
       </c>
       <c r="E33">
-        <v>0.828894931474716</v>
+        <v>3.674020777347389</v>
       </c>
       <c r="F33">
-        <v>0.2553643459690866</v>
+        <v>1.131885209160276</v>
       </c>
       <c r="G33">
-        <v>4.89737894071198</v>
+        <v>21.70730125072336</v>
       </c>
       <c r="I33">
-        <v>17.3079207426933</v>
+        <v>76.71618923788381</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>10.62068628358786</v>
+        <v>47.07547433806509</v>
       </c>
       <c r="C34">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D34">
-        <v>0.9531423440126837</v>
+        <v>4.224739038326488</v>
       </c>
       <c r="E34">
-        <v>1.450566130080752</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F34">
-        <v>0.2601825411760503</v>
+        <v>1.153241533861412</v>
       </c>
       <c r="G34">
-        <v>1.804297504472834</v>
+        <v>7.997426776582295</v>
       </c>
       <c r="H34">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I34">
-        <v>15.12216646725821</v>
+        <v>67.02798109811744</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>7.431908803769712</v>
+        <v>32.94143361670898</v>
       </c>
       <c r="C35">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D35">
-        <v>0.8850607480117781</v>
+        <v>3.922971964160311</v>
       </c>
       <c r="E35">
-        <v>1.119008157490867</v>
+        <v>4.959928049418976</v>
       </c>
       <c r="F35">
-        <v>0.1349094657949891</v>
+        <v>0.5979770916318435</v>
       </c>
       <c r="G35">
-        <v>5.412892513418501</v>
+        <v>23.99228032974685</v>
       </c>
       <c r="H35">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I35">
-        <v>15.01707135241388</v>
+        <v>66.56215410259119</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>7.071885539919277</v>
+        <v>31.34565482558814</v>
       </c>
       <c r="C36">
-        <v>0.001353277468992597</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D36">
-        <v>0.6127343640081538</v>
+        <v>2.715903667495601</v>
       </c>
       <c r="E36">
-        <v>1.367676636933282</v>
+        <v>6.06213428262319</v>
       </c>
       <c r="F36">
-        <v>0.1156366849671335</v>
+        <v>0.5125517928272944</v>
       </c>
       <c r="G36">
-        <v>2.319811077179358</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="H36">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I36">
-        <v>11.52171260566973</v>
+        <v>51.06921263053609</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>4.988893799070324</v>
+        <v>22.11293467696036</v>
       </c>
       <c r="C37">
-        <v>0.0004510924896641988</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D37">
-        <v>0.748897556009966</v>
+        <v>3.319437815827957</v>
       </c>
       <c r="E37">
-        <v>0.9946739177696584</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F37">
-        <v>0.1541822466228446</v>
+        <v>0.6834023904363926</v>
       </c>
       <c r="G37">
-        <v>2.577567863532619</v>
+        <v>11.42489539511756</v>
       </c>
       <c r="H37">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I37">
-        <v>9.497281500688608</v>
+        <v>42.09605854359276</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>2.571594741788827</v>
+        <v>11.3984199365775</v>
       </c>
       <c r="C38">
-        <v>0.0004510924896641988</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D38">
-        <v>0.34040798000453</v>
+        <v>1.508835370830889</v>
       </c>
       <c r="E38">
-        <v>0.7045606917535082</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F38">
-        <v>0.06745473289749455</v>
+        <v>0.2989885458159218</v>
       </c>
       <c r="G38">
-        <v>1.28878393176631</v>
+        <v>5.71244769755878</v>
       </c>
       <c r="I38">
-        <v>4.973253170700334</v>
+        <v>22.04360864850959</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>2.224429451647335</v>
+        <v>9.859633245139543</v>
       </c>
       <c r="C39">
-        <v>0.002481008693153094</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="D39">
-        <v>0.6127343640081538</v>
+        <v>2.715903667495601</v>
       </c>
       <c r="E39">
-        <v>0.1657789862949432</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F39">
-        <v>0.1060002945532057</v>
+        <v>0.4698391434250198</v>
       </c>
       <c r="G39">
-        <v>1.031027145413048</v>
+        <v>4.569958158047024</v>
       </c>
       <c r="I39">
-        <v>4.142451250609839</v>
+        <v>18.36113527297334</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.71011050328957</v>
+        <v>7.579949257824042</v>
       </c>
       <c r="C40">
-        <v>0.002481008693153094</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="F40">
-        <v>0.08190931851838622</v>
+        <v>0.3630575199193335</v>
       </c>
       <c r="G40">
-        <v>1.804297504472834</v>
+        <v>7.997426776582295</v>
       </c>
       <c r="I40">
-        <v>3.598798334973943</v>
+        <v>15.95143045772235</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>1.054353844133419</v>
+        <v>4.673352173996778</v>
       </c>
       <c r="C41">
-        <v>0.0002255462448320994</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D41">
-        <v>0.204244788002718</v>
+        <v>0.9053012224985337</v>
       </c>
       <c r="F41">
-        <v>0.04336375686267505</v>
+        <v>0.1922069223102354</v>
       </c>
       <c r="G41">
-        <v>0.7732703590597865</v>
+        <v>3.427468618535268</v>
       </c>
       <c r="I41">
-        <v>2.075458294303431</v>
+        <v>9.199328655831422</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.9000581596260893</v>
+        <v>3.989446977802126</v>
       </c>
       <c r="C42">
-        <v>0.0002255462448320994</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D42">
-        <v>0.136163192001812</v>
+        <v>0.6035341483323561</v>
       </c>
       <c r="F42">
-        <v>0.02409097603481947</v>
+        <v>0.1067816235056863</v>
       </c>
       <c r="G42">
-        <v>1.031027145413048</v>
+        <v>4.569958158047024</v>
       </c>
       <c r="I42">
-        <v>2.091565019320601</v>
+        <v>9.270720626177798</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.6557566591561513</v>
+        <v>2.906597083827263</v>
       </c>
       <c r="C43">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D43">
-        <v>0.136163192001812</v>
+        <v>0.6035341483323561</v>
       </c>
       <c r="E43">
-        <v>0.08288949314747161</v>
+        <v>0.3674020777347387</v>
       </c>
       <c r="F43">
-        <v>0.04336375686267505</v>
+        <v>0.1922069223102354</v>
       </c>
       <c r="G43">
-        <v>1.546540718119573</v>
+        <v>6.854937237070536</v>
       </c>
       <c r="I43">
-        <v>2.465390458022179</v>
+        <v>10.92767662474695</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>1.170075607513916</v>
+        <v>5.186281071142763</v>
       </c>
       <c r="C44">
-        <v>0.0004510924896641988</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="F44">
-        <v>0.05781834248356674</v>
+        <v>0.2562758964136472</v>
       </c>
       <c r="G44">
-        <v>2.835324649885884</v>
+        <v>12.56738493462932</v>
       </c>
       <c r="I44">
-        <v>4.063669692373031</v>
+        <v>18.01194133916694</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>4.011687797190571</v>
+        <v>17.78153510106091</v>
       </c>
       <c r="C45">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D45">
-        <v>0.8169791520108719</v>
+        <v>3.621204889994135</v>
       </c>
       <c r="E45">
-        <v>0.207223732868679</v>
+        <v>0.9185051943368472</v>
       </c>
       <c r="F45">
-        <v>0.2409097603481948</v>
+        <v>1.067816235056863</v>
       </c>
       <c r="G45">
-        <v>2.319811077179358</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="H45">
-        <v>0.06523005038706378</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I45">
-        <v>7.662518208719235</v>
+        <v>33.96359422243122</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>7.046169592501389</v>
+        <v>31.23167062622235</v>
       </c>
       <c r="C46">
-        <v>0.0002255462448320994</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D46">
-        <v>1.293550324017214</v>
+        <v>5.733574409157379</v>
       </c>
       <c r="E46">
-        <v>1.450566130080752</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F46">
-        <v>0.3228190788665809</v>
+        <v>1.430873754976197</v>
       </c>
       <c r="G46">
-        <v>10.56802824048374</v>
+        <v>46.84207111998198</v>
       </c>
       <c r="H46">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I46">
-        <v>20.69766642479128</v>
+        <v>91.74100793691265</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>8.974865648843013</v>
+        <v>39.78048557865549</v>
       </c>
       <c r="C47">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D47">
-        <v>1.157387132015402</v>
+        <v>5.130040260825022</v>
       </c>
       <c r="E47">
-        <v>1.243342397212074</v>
+        <v>5.511031166021081</v>
       </c>
       <c r="F47">
-        <v>0.1686368322437363</v>
+        <v>0.7474713645398041</v>
       </c>
       <c r="G47">
-        <v>4.639622154358716</v>
+        <v>20.56481171121162</v>
       </c>
       <c r="H47">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I47">
-        <v>16.2008383160042</v>
+        <v>71.80912118445104</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>8.203387226306358</v>
+        <v>36.36095959768225</v>
       </c>
       <c r="C48">
-        <v>0.00383428616214569</v>
+        <v>0.01699521434032143</v>
       </c>
       <c r="D48">
-        <v>1.838203092024461</v>
+        <v>8.147711002486803</v>
       </c>
       <c r="E48">
-        <v>1.284787143785809</v>
+        <v>5.694732204888456</v>
       </c>
       <c r="F48">
-        <v>0.2698189315899782</v>
+        <v>1.195954183263687</v>
       </c>
       <c r="G48">
-        <v>6.701676445184815</v>
+        <v>29.70472802730565</v>
       </c>
       <c r="H48">
-        <v>0.06523005038706378</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I48">
-        <v>18.36693717544063</v>
+        <v>81.41020802087199</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>7.393334882642879</v>
+        <v>32.77045731766032</v>
       </c>
       <c r="C49">
-        <v>0.004962017386306188</v>
+        <v>0.02199380679335715</v>
       </c>
       <c r="D49">
-        <v>1.293550324017214</v>
+        <v>5.733574409157379</v>
       </c>
       <c r="E49">
-        <v>1.906458342391847</v>
+        <v>8.450247787898993</v>
       </c>
       <c r="F49">
-        <v>0.467364935075498</v>
+        <v>2.071563496010315</v>
       </c>
       <c r="G49">
-        <v>7.474946804244599</v>
+        <v>33.13219664584095</v>
       </c>
       <c r="H49">
-        <v>0.1467676133708935</v>
+        <v>0.6505375295358525</v>
       </c>
       <c r="I49">
-        <v>18.68738491912924</v>
+        <v>82.83057099289715</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>26.84327895064001</v>
+        <v>5.965173100142228</v>
       </c>
       <c r="C2">
-        <v>0.01999436981214286</v>
+        <v>0.004443193291587304</v>
       </c>
       <c r="D2">
-        <v>8.147711002486803</v>
+        <v>1.810602444997067</v>
       </c>
       <c r="E2">
-        <v>4.225123893949497</v>
+        <v>0.9389164208776658</v>
       </c>
       <c r="F2">
-        <v>2.178345119516002</v>
+        <v>0.4840766932257781</v>
       </c>
       <c r="G2">
-        <v>66.2643932916819</v>
+        <v>14.72542073148486</v>
       </c>
       <c r="H2">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I2">
-        <v>107.895692471265</v>
+        <v>23.97682054916999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>26.9002710503229</v>
+        <v>5.97783801118287</v>
       </c>
       <c r="C3">
-        <v>0.0229935252839643</v>
+        <v>0.0051096722853254</v>
       </c>
       <c r="D3">
-        <v>8.147711002486803</v>
+        <v>1.810602444997067</v>
       </c>
       <c r="E3">
-        <v>4.408824932816866</v>
+        <v>0.9797388739593037</v>
       </c>
       <c r="F3">
-        <v>2.242414093619413</v>
+        <v>0.4983142430265361</v>
       </c>
       <c r="G3">
-        <v>55.98198743607604</v>
+        <v>12.44044165246134</v>
       </c>
       <c r="H3">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I3">
-        <v>97.92104788378461</v>
+        <v>21.76023286306325</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>27.47019204715179</v>
+        <v>6.104487121589285</v>
       </c>
       <c r="C4">
-        <v>0.01399605886850001</v>
+        <v>0.003110235304111113</v>
       </c>
       <c r="D4">
-        <v>5.431807334991201</v>
+        <v>1.207068296664712</v>
       </c>
       <c r="E4">
-        <v>3.490319738480018</v>
+        <v>0.7756266085511154</v>
       </c>
       <c r="F4">
-        <v>1.623080677286432</v>
+        <v>0.3606845949525405</v>
       </c>
       <c r="G4">
-        <v>37.70215480388795</v>
+        <v>8.378256623086205</v>
       </c>
       <c r="H4">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I4">
-        <v>75.8761145561183</v>
+        <v>16.86135879024851</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>31.85858372273411</v>
+        <v>7.079685271718694</v>
       </c>
       <c r="C5">
-        <v>0.03099127320882145</v>
+        <v>0.006886949601960322</v>
       </c>
       <c r="D5">
-        <v>10.8636146699824</v>
+        <v>2.414136593329424</v>
       </c>
       <c r="E5">
-        <v>3.30661869961265</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F5">
-        <v>2.349195717125099</v>
+        <v>0.5220434926944666</v>
       </c>
       <c r="G5">
-        <v>42.27211296193497</v>
+        <v>9.393802880429996</v>
       </c>
       <c r="H5">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I5">
-        <v>91.04252678322908</v>
+        <v>20.23167261849536</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>33.45436251385496</v>
+        <v>7.434302780856662</v>
       </c>
       <c r="C6">
-        <v>0.01899465132153572</v>
+        <v>0.004221033627007939</v>
       </c>
       <c r="D6">
-        <v>10.26008052165004</v>
+        <v>2.280017893700011</v>
       </c>
       <c r="E6">
-        <v>3.490319738480018</v>
+        <v>0.7756266085511154</v>
       </c>
       <c r="F6">
-        <v>2.455977340630786</v>
+        <v>0.545772742362397</v>
       </c>
       <c r="G6">
-        <v>38.8446443433997</v>
+        <v>8.632143187422157</v>
       </c>
       <c r="H6">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I6">
-        <v>88.74122495251567</v>
+        <v>19.72027221167015</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>32.99842571639189</v>
+        <v>7.332983492531532</v>
       </c>
       <c r="C7">
-        <v>0.03898902113367859</v>
+        <v>0.008664226918595246</v>
       </c>
       <c r="D7">
-        <v>7.845943928320622</v>
+        <v>1.743543095182362</v>
       </c>
       <c r="E7">
-        <v>4.408824932816866</v>
+        <v>0.9797388739593037</v>
       </c>
       <c r="F7">
-        <v>2.349195717125099</v>
+        <v>0.5220434926944666</v>
       </c>
       <c r="G7">
-        <v>37.70215480388795</v>
+        <v>8.378256623086205</v>
       </c>
       <c r="H7">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I7">
-        <v>85.56037996285473</v>
+        <v>19.01341776952327</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>38.58365148531484</v>
+        <v>8.574144774514417</v>
       </c>
       <c r="C8">
-        <v>0.0439876135867143</v>
+        <v>0.009775025241492071</v>
       </c>
       <c r="D8">
-        <v>10.8636146699824</v>
+        <v>2.414136593329424</v>
       </c>
       <c r="E8">
-        <v>4.592525971684236</v>
+        <v>1.020561327040941</v>
       </c>
       <c r="F8">
-        <v>1.751218625493256</v>
+        <v>0.3891596945540569</v>
       </c>
       <c r="G8">
-        <v>28.56223848779391</v>
+        <v>6.347164108398641</v>
       </c>
       <c r="H8">
-        <v>0.5059736340834409</v>
+        <v>0.1124385853518758</v>
       </c>
       <c r="I8">
-        <v>84.90321048793881</v>
+        <v>18.86738010843085</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>44.68180615138381</v>
+        <v>9.929290255863066</v>
       </c>
       <c r="C9">
-        <v>0.01199662188728572</v>
+        <v>0.002665915974952383</v>
       </c>
       <c r="D9">
-        <v>6.638875631655914</v>
+        <v>1.475305695923537</v>
       </c>
       <c r="E9">
-        <v>4.041422855082126</v>
+        <v>0.8980939677960286</v>
       </c>
       <c r="F9">
-        <v>1.302735806769373</v>
+        <v>0.2894968459487497</v>
       </c>
       <c r="G9">
-        <v>23.99228032974685</v>
+        <v>5.331617851054861</v>
       </c>
       <c r="I9">
-        <v>80.66911739652535</v>
+        <v>17.92647053256119</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>42.68708266248272</v>
+        <v>9.486018369440609</v>
       </c>
       <c r="C10">
-        <v>0.006998029434250005</v>
+        <v>0.001555117652055557</v>
       </c>
       <c r="D10">
-        <v>6.337108557489735</v>
+        <v>1.408246346108831</v>
       </c>
       <c r="E10">
-        <v>6.6132373992253</v>
+        <v>1.469608310938955</v>
       </c>
       <c r="F10">
-        <v>1.046459910355726</v>
+        <v>0.2325466467457169</v>
       </c>
       <c r="G10">
-        <v>12.56738493462932</v>
+        <v>2.792752207695405</v>
       </c>
       <c r="H10">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I10">
-        <v>69.33055344134326</v>
+        <v>15.40678965363184</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>30.83272592844215</v>
+        <v>6.851716872987141</v>
       </c>
       <c r="C11">
-        <v>0.00599831094364286</v>
+        <v>0.001332957987476192</v>
       </c>
       <c r="D11">
-        <v>5.130040260825022</v>
+        <v>1.140008946850006</v>
       </c>
       <c r="E11">
-        <v>5.511031166021081</v>
+        <v>1.22467359244913</v>
       </c>
       <c r="F11">
-        <v>0.4698391434250198</v>
+        <v>0.1044086985388933</v>
       </c>
       <c r="G11">
-        <v>19.42232217169985</v>
+        <v>4.316071593711079</v>
       </c>
       <c r="H11">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I11">
-        <v>61.44423892908298</v>
+        <v>13.65427531757399</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>27.69816044588333</v>
+        <v>6.155146765751853</v>
       </c>
       <c r="C12">
-        <v>0.01799493283092858</v>
+        <v>0.003998873962428574</v>
       </c>
       <c r="D12">
-        <v>4.526506112492672</v>
+        <v>1.005890247220593</v>
       </c>
       <c r="E12">
-        <v>4.776227010551604</v>
+        <v>1.061383780122579</v>
       </c>
       <c r="F12">
-        <v>0.4484828187238827</v>
+        <v>0.09966284860530725</v>
       </c>
       <c r="G12">
-        <v>10.28240585560581</v>
+        <v>2.284979079023512</v>
       </c>
       <c r="H12">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I12">
-        <v>47.82205912381442</v>
+        <v>10.62712424973654</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>20.17520328774219</v>
+        <v>4.483378508387152</v>
       </c>
       <c r="C13">
-        <v>0.003998873962428573</v>
+        <v>0.0008886386583174608</v>
       </c>
       <c r="D13">
-        <v>3.922971964160311</v>
+        <v>0.8717715475911809</v>
       </c>
       <c r="E13">
-        <v>4.776227010551604</v>
+        <v>1.061383780122579</v>
       </c>
       <c r="F13">
-        <v>0.3417011952181963</v>
+        <v>0.07593359893737696</v>
       </c>
       <c r="G13">
-        <v>9.139916316094048</v>
+        <v>2.031092514687566</v>
       </c>
       <c r="H13">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I13">
-        <v>38.43230059545498</v>
+        <v>8.540511243434441</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>10.37256214228553</v>
+        <v>2.305013809396785</v>
       </c>
       <c r="C14">
-        <v>0.001999436981214287</v>
+        <v>0.0004443193291587304</v>
       </c>
       <c r="D14">
-        <v>1.508835370830889</v>
+        <v>0.3352967490735309</v>
       </c>
       <c r="E14">
-        <v>3.12291766074528</v>
+        <v>0.69398170238784</v>
       </c>
       <c r="F14">
-        <v>0.2562758964136472</v>
+        <v>0.05695019920303272</v>
       </c>
       <c r="G14">
-        <v>3.427468618535268</v>
+        <v>0.7616596930078378</v>
       </c>
       <c r="I14">
-        <v>18.69005912579182</v>
+        <v>4.153346472398185</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>8.434830753067356</v>
+        <v>1.874406834014968</v>
       </c>
       <c r="C15">
-        <v>0.006998029434250005</v>
+        <v>0.001555117652055557</v>
       </c>
       <c r="D15">
-        <v>2.414136593329424</v>
+        <v>0.5364747985176498</v>
       </c>
       <c r="E15">
-        <v>1.102206233204217</v>
+        <v>0.2449347184898259</v>
       </c>
       <c r="F15">
-        <v>0.6406897410341179</v>
+        <v>0.1423754980075818</v>
       </c>
       <c r="G15">
-        <v>5.71244769755878</v>
+        <v>1.26943282167973</v>
       </c>
       <c r="I15">
-        <v>18.31130904762814</v>
+        <v>4.069179788361811</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>6.896044061629393</v>
+        <v>1.532454235917642</v>
       </c>
       <c r="C16">
-        <v>0.00599831094364286</v>
+        <v>0.001332957987476192</v>
       </c>
       <c r="F16">
-        <v>0.2776322211147844</v>
+        <v>0.06169604913661875</v>
       </c>
       <c r="G16">
-        <v>5.71244769755878</v>
+        <v>1.26943282167973</v>
       </c>
       <c r="I16">
-        <v>12.8921222912466</v>
+        <v>2.864916064721466</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>3.761478579070578</v>
+        <v>0.8358841286823505</v>
       </c>
       <c r="C17">
-        <v>0.0009997184906071434</v>
+        <v>0.0002221596645793652</v>
       </c>
       <c r="D17">
-        <v>0.9053012224985337</v>
+        <v>0.2011780494441186</v>
       </c>
       <c r="F17">
-        <v>0.1922069223102354</v>
+        <v>0.04271264940227454</v>
       </c>
       <c r="G17">
-        <v>2.284979079023512</v>
+        <v>0.5077731286718916</v>
       </c>
       <c r="I17">
-        <v>7.144965521393467</v>
+        <v>1.587770115865215</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.963589183510151</v>
+        <v>0.658575374113367</v>
       </c>
       <c r="C18">
-        <v>0.0009997184906071434</v>
+        <v>0.0002221596645793652</v>
       </c>
       <c r="D18">
-        <v>0.301767074166178</v>
+        <v>0.06705934981470622</v>
       </c>
       <c r="F18">
-        <v>0.1067816235056863</v>
+        <v>0.0237292496679303</v>
       </c>
       <c r="G18">
-        <v>4.569958158047024</v>
+        <v>1.015546257343783</v>
       </c>
       <c r="I18">
-        <v>7.943095757719647</v>
+        <v>1.765132390604366</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.849604984144376</v>
+        <v>0.6332455520320839</v>
       </c>
       <c r="C19">
-        <v>0.004998592453035716</v>
+        <v>0.001110798322896826</v>
       </c>
       <c r="D19">
-        <v>0.6035341483323561</v>
+        <v>0.1341186996294124</v>
       </c>
       <c r="E19">
-        <v>0.7348041554694774</v>
+        <v>0.1632898123265506</v>
       </c>
       <c r="F19">
-        <v>0.2562758964136472</v>
+        <v>0.05695019920303272</v>
       </c>
       <c r="G19">
-        <v>4.569958158047024</v>
+        <v>1.015546257343783</v>
       </c>
       <c r="I19">
-        <v>9.019175934859916</v>
+        <v>2.00426131885776</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>5.243273170825653</v>
+        <v>1.165171815739034</v>
       </c>
       <c r="C20">
-        <v>0.001999436981214287</v>
+        <v>0.0004443193291587304</v>
       </c>
       <c r="F20">
-        <v>0.2349195717125099</v>
+        <v>0.05220434926944666</v>
       </c>
       <c r="G20">
-        <v>10.28240585560581</v>
+        <v>2.284979079023512</v>
       </c>
       <c r="I20">
-        <v>15.76259803512519</v>
+        <v>3.502799563361151</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>17.66755090169513</v>
+        <v>3.926122422598918</v>
       </c>
       <c r="C21">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D21">
-        <v>6.638875631655914</v>
+        <v>1.475305695923537</v>
       </c>
       <c r="E21">
-        <v>1.102206233204217</v>
+        <v>0.2449347184898259</v>
       </c>
       <c r="F21">
-        <v>0.7901840139420789</v>
+        <v>0.1755964475426842</v>
       </c>
       <c r="G21">
-        <v>10.28240585560581</v>
+        <v>2.284979079023512</v>
       </c>
       <c r="H21">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I21">
-        <v>36.62878568702739</v>
+        <v>8.139730152672751</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>30.26280493161328</v>
+        <v>6.725067762580724</v>
       </c>
       <c r="C22">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D22">
-        <v>8.751245150819157</v>
+        <v>1.944721144626479</v>
       </c>
       <c r="E22">
-        <v>6.429536360357932</v>
+        <v>1.428785857857318</v>
       </c>
       <c r="F22">
-        <v>1.409517430275059</v>
+        <v>0.31322609561668</v>
       </c>
       <c r="G22">
-        <v>35.41717572486442</v>
+        <v>7.87048349441432</v>
       </c>
       <c r="H22">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I22">
-        <v>82.34556070112788</v>
+        <v>18.29901348913953</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>39.09658038246084</v>
+        <v>8.688128973880188</v>
       </c>
       <c r="C23">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D23">
-        <v>4.224739038326488</v>
+        <v>0.9388308974058867</v>
       </c>
       <c r="E23">
-        <v>5.878433243755819</v>
+        <v>1.306318498612405</v>
       </c>
       <c r="F23">
-        <v>0.8328966633443535</v>
+        <v>0.1850881474098563</v>
       </c>
       <c r="G23">
-        <v>18.2798326321881</v>
+        <v>4.062185029375133</v>
       </c>
       <c r="H23">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I23">
-        <v>68.46004501099982</v>
+        <v>15.21334333577774</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>37.89974628912019</v>
+        <v>8.422165842026715</v>
       </c>
       <c r="C24">
-        <v>0.01599549584971429</v>
+        <v>0.003554554633269843</v>
       </c>
       <c r="D24">
-        <v>7.24240977998827</v>
+        <v>1.609424395552949</v>
       </c>
       <c r="E24">
-        <v>5.143629088286346</v>
+        <v>1.143028686285855</v>
       </c>
       <c r="F24">
-        <v>1.153241533861412</v>
+        <v>0.2562758964136472</v>
       </c>
       <c r="G24">
-        <v>33.13219664584095</v>
+        <v>7.362710365742429</v>
       </c>
       <c r="H24">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I24">
-        <v>84.80406467612551</v>
+        <v>18.84534770580567</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>32.77045731766032</v>
+        <v>7.282323848368959</v>
       </c>
       <c r="C25">
-        <v>0.02199380679335715</v>
+        <v>0.004887512620746035</v>
       </c>
       <c r="D25">
-        <v>5.733574409157379</v>
+        <v>1.274127646479418</v>
       </c>
       <c r="E25">
-        <v>8.450247787898993</v>
+        <v>1.877832841755332</v>
       </c>
       <c r="F25">
-        <v>2.071563496010315</v>
+        <v>0.4603474435578477</v>
       </c>
       <c r="G25">
-        <v>33.13219664584095</v>
+        <v>7.362710365742429</v>
       </c>
       <c r="H25">
-        <v>0.6505375295358525</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I25">
-        <v>82.83057099289715</v>
+        <v>18.40679355397714</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>27.64116834620044</v>
+        <v>6.14248185471121</v>
       </c>
       <c r="C26">
-        <v>0.01699521434032143</v>
+        <v>0.003776714297849208</v>
       </c>
       <c r="D26">
-        <v>7.24240977998827</v>
+        <v>1.609424395552949</v>
       </c>
       <c r="E26">
-        <v>4.225123893949497</v>
+        <v>0.9389164208776658</v>
       </c>
       <c r="F26">
-        <v>2.327839392423963</v>
+        <v>0.5172976427608805</v>
       </c>
       <c r="G26">
-        <v>78.8317782263112</v>
+        <v>17.51817293918025</v>
       </c>
       <c r="H26">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I26">
-        <v>120.5021606963923</v>
+        <v>26.77825793253161</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>26.10238165476247</v>
+        <v>5.800529256613883</v>
       </c>
       <c r="C27">
-        <v>0.02599268075578573</v>
+        <v>0.005776151279063496</v>
       </c>
       <c r="D27">
-        <v>7.24240977998827</v>
+        <v>1.609424395552949</v>
       </c>
       <c r="E27">
-        <v>3.674020777347389</v>
+        <v>0.8164490616327532</v>
       </c>
       <c r="F27">
-        <v>2.541402639435335</v>
+        <v>0.5647561420967407</v>
       </c>
       <c r="G27">
-        <v>71.97684098924061</v>
+        <v>15.99485355316459</v>
       </c>
       <c r="H27">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I27">
-        <v>111.7076124169823</v>
+        <v>24.82391387044052</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>25.81742115634805</v>
+        <v>5.737204701410676</v>
       </c>
       <c r="C28">
-        <v>0.01099690339667858</v>
+        <v>0.002443756310373018</v>
       </c>
       <c r="D28">
-        <v>4.224739038326488</v>
+        <v>0.9388308974058867</v>
       </c>
       <c r="E28">
-        <v>4.408824932816866</v>
+        <v>0.9797388739593037</v>
       </c>
       <c r="F28">
-        <v>1.366804780872785</v>
+        <v>0.3037343957495078</v>
       </c>
       <c r="G28">
-        <v>38.8446443433997</v>
+        <v>8.632143187422157</v>
       </c>
       <c r="H28">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I28">
-        <v>74.89027699833917</v>
+        <v>16.64228377740871</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>31.91557582241701</v>
+        <v>7.092350182759339</v>
       </c>
       <c r="C29">
-        <v>0.03099127320882145</v>
+        <v>0.006886949601960322</v>
       </c>
       <c r="D29">
-        <v>13.57951833747801</v>
+        <v>3.017670741661779</v>
       </c>
       <c r="E29">
-        <v>5.511031166021081</v>
+        <v>1.22467359244913</v>
       </c>
       <c r="F29">
-        <v>2.242414093619413</v>
+        <v>0.4983142430265361</v>
       </c>
       <c r="G29">
-        <v>58.26696651509955</v>
+        <v>12.94821478113323</v>
       </c>
       <c r="H29">
-        <v>0.5782555818096466</v>
+        <v>0.1285012404021437</v>
       </c>
       <c r="I29">
-        <v>112.1247527896535</v>
+        <v>24.91661173103412</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>28.43905774176087</v>
+        <v>6.319790609280191</v>
       </c>
       <c r="C30">
-        <v>0.01499577735910715</v>
+        <v>0.003332394968690478</v>
       </c>
       <c r="D30">
-        <v>10.8636146699824</v>
+        <v>2.414136593329424</v>
       </c>
       <c r="E30">
-        <v>2.93921662187791</v>
+        <v>0.6531592493062023</v>
       </c>
       <c r="F30">
-        <v>2.498689990033059</v>
+        <v>0.5552644422295688</v>
       </c>
       <c r="G30">
-        <v>28.56223848779391</v>
+        <v>6.347164108398641</v>
       </c>
       <c r="H30">
-        <v>0.2891277909048233</v>
+        <v>0.06425062020107185</v>
       </c>
       <c r="I30">
-        <v>73.60694107971209</v>
+        <v>16.35709801771379</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>33.96729141100096</v>
+        <v>7.548286980222436</v>
       </c>
       <c r="C31">
-        <v>0.02599268075578573</v>
+        <v>0.005776151279063496</v>
       </c>
       <c r="D31">
-        <v>10.56184759581623</v>
+        <v>2.347077243514716</v>
       </c>
       <c r="E31">
-        <v>3.674020777347389</v>
+        <v>0.8164490616327532</v>
       </c>
       <c r="F31">
-        <v>2.135632470113726</v>
+        <v>0.4745849933586059</v>
       </c>
       <c r="G31">
-        <v>39.98713388291148</v>
+        <v>8.886029751758104</v>
       </c>
       <c r="H31">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I31">
-        <v>90.7133285565766</v>
+        <v>20.15851745701702</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>39.43853298055817</v>
+        <v>8.764118440124038</v>
       </c>
       <c r="C32">
-        <v>0.0369895841524643</v>
+        <v>0.008219907589436514</v>
       </c>
       <c r="D32">
-        <v>9.958313447483864</v>
+        <v>2.212958543885303</v>
       </c>
       <c r="E32">
-        <v>4.408824932816866</v>
+        <v>0.9797388739593037</v>
       </c>
       <c r="F32">
-        <v>1.751218625493256</v>
+        <v>0.3891596945540569</v>
       </c>
       <c r="G32">
-        <v>51.41202927802902</v>
+        <v>11.42489539511756</v>
       </c>
       <c r="H32">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I32">
-        <v>107.3673185871647</v>
+        <v>23.85940413048104</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>45.36571134757847</v>
+        <v>10.08126918835077</v>
       </c>
       <c r="C33">
-        <v>0.008997466415464291</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D33">
-        <v>4.828273186658849</v>
+        <v>1.0729495970353</v>
       </c>
       <c r="E33">
-        <v>3.674020777347389</v>
+        <v>0.8164490616327532</v>
       </c>
       <c r="F33">
-        <v>1.131885209160276</v>
+        <v>0.2515300464800611</v>
       </c>
       <c r="G33">
-        <v>21.70730125072336</v>
+        <v>4.82384472238297</v>
       </c>
       <c r="I33">
-        <v>76.71618923788381</v>
+        <v>17.04804205286306</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>47.07547433806509</v>
+        <v>10.46121651957002</v>
       </c>
       <c r="C34">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D34">
-        <v>4.224739038326488</v>
+        <v>0.9388308974058867</v>
       </c>
       <c r="E34">
-        <v>6.429536360357932</v>
+        <v>1.428785857857318</v>
       </c>
       <c r="F34">
-        <v>1.153241533861412</v>
+        <v>0.2562758964136472</v>
       </c>
       <c r="G34">
-        <v>7.997426776582295</v>
+        <v>1.77720595035162</v>
       </c>
       <c r="H34">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I34">
-        <v>67.02798109811744</v>
+        <v>14.89510691069277</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>32.94143361670898</v>
+        <v>7.320318581490886</v>
       </c>
       <c r="C35">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D35">
-        <v>3.922971964160311</v>
+        <v>0.8717715475911809</v>
       </c>
       <c r="E35">
-        <v>4.959928049418976</v>
+        <v>1.102206233204217</v>
       </c>
       <c r="F35">
-        <v>0.5979770916318435</v>
+        <v>0.1328837981404097</v>
       </c>
       <c r="G35">
-        <v>23.99228032974685</v>
+        <v>5.331617851054861</v>
       </c>
       <c r="H35">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I35">
-        <v>66.56215410259119</v>
+        <v>14.79158980057583</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>31.34565482558814</v>
+        <v>6.96570107235292</v>
       </c>
       <c r="C36">
-        <v>0.00599831094364286</v>
+        <v>0.001332957987476192</v>
       </c>
       <c r="D36">
-        <v>2.715903667495601</v>
+        <v>0.6035341483323561</v>
       </c>
       <c r="E36">
-        <v>6.06213428262319</v>
+        <v>1.347140951694043</v>
       </c>
       <c r="F36">
-        <v>0.5125517928272944</v>
+        <v>0.1139003984060654</v>
       </c>
       <c r="G36">
-        <v>10.28240585560581</v>
+        <v>2.284979079023512</v>
       </c>
       <c r="H36">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I36">
-        <v>51.06921263053609</v>
+        <v>11.34871391789691</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>22.11293467696036</v>
+        <v>4.913985483768971</v>
       </c>
       <c r="C37">
-        <v>0.001999436981214287</v>
+        <v>0.0004443193291587304</v>
       </c>
       <c r="D37">
-        <v>3.319437815827957</v>
+        <v>0.7376528479617686</v>
       </c>
       <c r="E37">
-        <v>4.408824932816866</v>
+        <v>0.9797388739593037</v>
       </c>
       <c r="F37">
-        <v>0.6834023904363926</v>
+        <v>0.1518671978747539</v>
       </c>
       <c r="G37">
-        <v>11.42489539511756</v>
+        <v>2.538865643359459</v>
       </c>
       <c r="H37">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I37">
-        <v>42.09605854359276</v>
+        <v>9.35467967635395</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>11.3984199365775</v>
+        <v>2.532982208128336</v>
       </c>
       <c r="C38">
-        <v>0.001999436981214287</v>
+        <v>0.0004443193291587304</v>
       </c>
       <c r="D38">
-        <v>1.508835370830889</v>
+        <v>0.3352967490735309</v>
       </c>
       <c r="E38">
-        <v>3.12291766074528</v>
+        <v>0.69398170238784</v>
       </c>
       <c r="F38">
-        <v>0.2989885458159218</v>
+        <v>0.06644189907020483</v>
       </c>
       <c r="G38">
-        <v>5.71244769755878</v>
+        <v>1.26943282167973</v>
       </c>
       <c r="I38">
-        <v>22.04360864850959</v>
+        <v>4.898579699668799</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>9.859633245139543</v>
+        <v>2.19102961003101</v>
       </c>
       <c r="C39">
-        <v>0.01099690339667858</v>
+        <v>0.002443756310373018</v>
       </c>
       <c r="D39">
-        <v>2.715903667495601</v>
+        <v>0.6035341483323561</v>
       </c>
       <c r="E39">
-        <v>0.7348041554694774</v>
+        <v>0.1632898123265506</v>
       </c>
       <c r="F39">
-        <v>0.4698391434250198</v>
+        <v>0.1044086985388933</v>
       </c>
       <c r="G39">
-        <v>4.569958158047024</v>
+        <v>1.015546257343783</v>
       </c>
       <c r="I39">
-        <v>18.36113527297334</v>
+        <v>4.080252282882966</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>7.579949257824042</v>
+        <v>1.684433168405343</v>
       </c>
       <c r="C40">
-        <v>0.01099690339667858</v>
+        <v>0.002443756310373018</v>
       </c>
       <c r="F40">
-        <v>0.3630575199193335</v>
+        <v>0.08067944887096298</v>
       </c>
       <c r="G40">
-        <v>7.997426776582295</v>
+        <v>1.77720595035162</v>
       </c>
       <c r="I40">
-        <v>15.95143045772235</v>
+        <v>3.5447623239383</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>4.673352173996778</v>
+        <v>1.038522705332617</v>
       </c>
       <c r="C41">
-        <v>0.0009997184906071434</v>
+        <v>0.0002221596645793652</v>
       </c>
       <c r="D41">
-        <v>0.9053012224985337</v>
+        <v>0.2011780494441186</v>
       </c>
       <c r="F41">
-        <v>0.1922069223102354</v>
+        <v>0.04271264940227454</v>
       </c>
       <c r="G41">
-        <v>3.427468618535268</v>
+        <v>0.7616596930078378</v>
       </c>
       <c r="I41">
-        <v>9.199328655831422</v>
+        <v>2.044295256851427</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>3.989446977802126</v>
+        <v>0.8865437728449174</v>
       </c>
       <c r="C42">
-        <v>0.0009997184906071434</v>
+        <v>0.0002221596645793652</v>
       </c>
       <c r="D42">
-        <v>0.6035341483323561</v>
+        <v>0.1341186996294124</v>
       </c>
       <c r="F42">
-        <v>0.1067816235056863</v>
+        <v>0.0237292496679303</v>
       </c>
       <c r="G42">
-        <v>4.569958158047024</v>
+        <v>1.015546257343783</v>
       </c>
       <c r="I42">
-        <v>9.270720626177798</v>
+        <v>2.060160139150622</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.906597083827263</v>
+        <v>0.6459104630727249</v>
       </c>
       <c r="C43">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D43">
-        <v>0.6035341483323561</v>
+        <v>0.1341186996294124</v>
       </c>
       <c r="E43">
-        <v>0.3674020777347387</v>
+        <v>0.08164490616327529</v>
       </c>
       <c r="F43">
-        <v>0.1922069223102354</v>
+        <v>0.04271264940227454</v>
       </c>
       <c r="G43">
-        <v>6.854937237070536</v>
+        <v>1.523319386015676</v>
       </c>
       <c r="I43">
-        <v>10.92767662474695</v>
+        <v>2.428372583277101</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>5.186281071142763</v>
+        <v>1.152506904698393</v>
       </c>
       <c r="C44">
-        <v>0.001999436981214287</v>
+        <v>0.0004443193291587304</v>
       </c>
       <c r="F44">
-        <v>0.2562758964136472</v>
+        <v>0.05695019920303272</v>
       </c>
       <c r="G44">
-        <v>12.56738493462932</v>
+        <v>2.792752207695405</v>
       </c>
       <c r="I44">
-        <v>18.01194133916694</v>
+        <v>4.002653630925989</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>17.78153510106091</v>
+        <v>3.951452244680201</v>
       </c>
       <c r="C45">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D45">
-        <v>3.621204889994135</v>
+        <v>0.8047121977764744</v>
       </c>
       <c r="E45">
-        <v>0.9185051943368472</v>
+        <v>0.2041122654081883</v>
       </c>
       <c r="F45">
-        <v>1.067816235056863</v>
+        <v>0.2372924966793029</v>
       </c>
       <c r="G45">
-        <v>10.28240585560581</v>
+        <v>2.284979079023512</v>
       </c>
       <c r="H45">
-        <v>0.2891277909048233</v>
+        <v>0.06425062020107185</v>
       </c>
       <c r="I45">
-        <v>33.96359422243122</v>
+        <v>7.547465382762489</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>31.23167062622235</v>
+        <v>6.940371250271637</v>
       </c>
       <c r="C46">
-        <v>0.0009997184906071434</v>
+        <v>0.0002221596645793652</v>
       </c>
       <c r="D46">
-        <v>5.733574409157379</v>
+        <v>1.274127646479418</v>
       </c>
       <c r="E46">
-        <v>6.429536360357932</v>
+        <v>1.428785857857318</v>
       </c>
       <c r="F46">
-        <v>1.430873754976197</v>
+        <v>0.3179719455502659</v>
       </c>
       <c r="G46">
-        <v>46.84207111998198</v>
+        <v>10.40934913777378</v>
       </c>
       <c r="H46">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I46">
-        <v>91.74100793691265</v>
+        <v>20.38689065264726</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>39.78048557865549</v>
+        <v>8.840107906367889</v>
       </c>
       <c r="C47">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D47">
-        <v>5.130040260825022</v>
+        <v>1.140008946850006</v>
       </c>
       <c r="E47">
-        <v>5.511031166021081</v>
+        <v>1.22467359244913</v>
       </c>
       <c r="F47">
-        <v>0.7474713645398041</v>
+        <v>0.1661047476755121</v>
       </c>
       <c r="G47">
-        <v>20.56481171121162</v>
+        <v>4.569958158047024</v>
       </c>
       <c r="H47">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I47">
-        <v>71.80912118445104</v>
+        <v>15.95758248543357</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>36.36095959768225</v>
+        <v>8.080213243929387</v>
       </c>
       <c r="C48">
-        <v>0.01699521434032143</v>
+        <v>0.003776714297849208</v>
       </c>
       <c r="D48">
-        <v>8.147711002486803</v>
+        <v>1.810602444997067</v>
       </c>
       <c r="E48">
-        <v>5.694732204888456</v>
+        <v>1.265496045530767</v>
       </c>
       <c r="F48">
-        <v>1.195954183263687</v>
+        <v>0.2657675962808193</v>
       </c>
       <c r="G48">
-        <v>29.70472802730565</v>
+        <v>6.601050672734589</v>
       </c>
       <c r="H48">
-        <v>0.2891277909048233</v>
+        <v>0.06425062020107185</v>
       </c>
       <c r="I48">
-        <v>81.41020802087199</v>
+        <v>18.09115733797155</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>32.77045731766032</v>
+        <v>7.282323848368959</v>
       </c>
       <c r="C49">
-        <v>0.02199380679335715</v>
+        <v>0.004887512620746035</v>
       </c>
       <c r="D49">
-        <v>5.733574409157379</v>
+        <v>1.274127646479418</v>
       </c>
       <c r="E49">
-        <v>8.450247787898993</v>
+        <v>1.877832841755332</v>
       </c>
       <c r="F49">
-        <v>2.071563496010315</v>
+        <v>0.4603474435578477</v>
       </c>
       <c r="G49">
-        <v>33.13219664584095</v>
+        <v>7.362710365742429</v>
       </c>
       <c r="H49">
-        <v>0.6505375295358525</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I49">
-        <v>82.83057099289715</v>
+        <v>18.40679355397714</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>5.965173100142228</v>
+        <v>26.84327895064001</v>
       </c>
       <c r="C2">
-        <v>0.004443193291587304</v>
+        <v>0.01999436981214286</v>
       </c>
       <c r="D2">
-        <v>1.810602444997067</v>
+        <v>8.147711002486803</v>
       </c>
       <c r="E2">
-        <v>0.9389164208776658</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F2">
-        <v>0.4840766932257781</v>
+        <v>2.178345119516002</v>
       </c>
       <c r="G2">
-        <v>14.72542073148486</v>
+        <v>66.2643932916819</v>
       </c>
       <c r="H2">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I2">
-        <v>23.97682054916999</v>
+        <v>107.895692471265</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>5.97783801118287</v>
+        <v>26.9002710503229</v>
       </c>
       <c r="C3">
-        <v>0.0051096722853254</v>
+        <v>0.0229935252839643</v>
       </c>
       <c r="D3">
-        <v>1.810602444997067</v>
+        <v>8.147711002486803</v>
       </c>
       <c r="E3">
-        <v>0.9797388739593037</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F3">
-        <v>0.4983142430265361</v>
+        <v>2.242414093619413</v>
       </c>
       <c r="G3">
-        <v>12.44044165246134</v>
+        <v>55.98198743607604</v>
       </c>
       <c r="H3">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I3">
-        <v>21.76023286306325</v>
+        <v>97.92104788378461</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>6.104487121589285</v>
+        <v>27.47019204715179</v>
       </c>
       <c r="C4">
-        <v>0.003110235304111113</v>
+        <v>0.01399605886850001</v>
       </c>
       <c r="D4">
-        <v>1.207068296664712</v>
+        <v>5.431807334991201</v>
       </c>
       <c r="E4">
-        <v>0.7756266085511154</v>
+        <v>3.490319738480018</v>
       </c>
       <c r="F4">
-        <v>0.3606845949525405</v>
+        <v>1.623080677286432</v>
       </c>
       <c r="G4">
-        <v>8.378256623086205</v>
+        <v>37.70215480388795</v>
       </c>
       <c r="H4">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I4">
-        <v>16.86135879024851</v>
+        <v>75.8761145561183</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>7.079685271718694</v>
+        <v>31.85858372273411</v>
       </c>
       <c r="C5">
-        <v>0.006886949601960322</v>
+        <v>0.03099127320882145</v>
       </c>
       <c r="D5">
-        <v>2.414136593329424</v>
+        <v>10.8636146699824</v>
       </c>
       <c r="E5">
-        <v>0.7348041554694774</v>
+        <v>3.30661869961265</v>
       </c>
       <c r="F5">
-        <v>0.5220434926944666</v>
+        <v>2.349195717125099</v>
       </c>
       <c r="G5">
-        <v>9.393802880429996</v>
+        <v>42.27211296193497</v>
       </c>
       <c r="H5">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I5">
-        <v>20.23167261849536</v>
+        <v>91.04252678322908</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>7.434302780856662</v>
+        <v>33.45436251385496</v>
       </c>
       <c r="C6">
-        <v>0.004221033627007939</v>
+        <v>0.01899465132153572</v>
       </c>
       <c r="D6">
-        <v>2.280017893700011</v>
+        <v>10.26008052165004</v>
       </c>
       <c r="E6">
-        <v>0.7756266085511154</v>
+        <v>3.490319738480018</v>
       </c>
       <c r="F6">
-        <v>0.545772742362397</v>
+        <v>2.455977340630786</v>
       </c>
       <c r="G6">
-        <v>8.632143187422157</v>
+        <v>38.8446443433997</v>
       </c>
       <c r="H6">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I6">
-        <v>19.72027221167015</v>
+        <v>88.74122495251567</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>7.332983492531532</v>
+        <v>32.99842571639189</v>
       </c>
       <c r="C7">
-        <v>0.008664226918595246</v>
+        <v>0.03898902113367859</v>
       </c>
       <c r="D7">
-        <v>1.743543095182362</v>
+        <v>7.845943928320622</v>
       </c>
       <c r="E7">
-        <v>0.9797388739593037</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F7">
-        <v>0.5220434926944666</v>
+        <v>2.349195717125099</v>
       </c>
       <c r="G7">
-        <v>8.378256623086205</v>
+        <v>37.70215480388795</v>
       </c>
       <c r="H7">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I7">
-        <v>19.01341776952327</v>
+        <v>85.56037996285473</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>8.574144774514417</v>
+        <v>38.58365148531484</v>
       </c>
       <c r="C8">
-        <v>0.009775025241492071</v>
+        <v>0.0439876135867143</v>
       </c>
       <c r="D8">
-        <v>2.414136593329424</v>
+        <v>10.8636146699824</v>
       </c>
       <c r="E8">
-        <v>1.020561327040941</v>
+        <v>4.592525971684236</v>
       </c>
       <c r="F8">
-        <v>0.3891596945540569</v>
+        <v>1.751218625493256</v>
       </c>
       <c r="G8">
-        <v>6.347164108398641</v>
+        <v>28.56223848779391</v>
       </c>
       <c r="H8">
-        <v>0.1124385853518758</v>
+        <v>0.5059736340834409</v>
       </c>
       <c r="I8">
-        <v>18.86738010843085</v>
+        <v>84.90321048793881</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>9.929290255863066</v>
+        <v>44.68180615138381</v>
       </c>
       <c r="C9">
-        <v>0.002665915974952383</v>
+        <v>0.01199662188728572</v>
       </c>
       <c r="D9">
-        <v>1.475305695923537</v>
+        <v>6.638875631655914</v>
       </c>
       <c r="E9">
-        <v>0.8980939677960286</v>
+        <v>4.041422855082126</v>
       </c>
       <c r="F9">
-        <v>0.2894968459487497</v>
+        <v>1.302735806769373</v>
       </c>
       <c r="G9">
-        <v>5.331617851054861</v>
+        <v>23.99228032974685</v>
       </c>
       <c r="I9">
-        <v>17.92647053256119</v>
+        <v>80.66911739652535</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>9.486018369440609</v>
+        <v>42.68708266248272</v>
       </c>
       <c r="C10">
-        <v>0.001555117652055557</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D10">
-        <v>1.408246346108831</v>
+        <v>6.337108557489735</v>
       </c>
       <c r="E10">
-        <v>1.469608310938955</v>
+        <v>6.6132373992253</v>
       </c>
       <c r="F10">
-        <v>0.2325466467457169</v>
+        <v>1.046459910355726</v>
       </c>
       <c r="G10">
-        <v>2.792752207695405</v>
+        <v>12.56738493462932</v>
       </c>
       <c r="H10">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I10">
-        <v>15.40678965363184</v>
+        <v>69.33055344134326</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>6.851716872987141</v>
+        <v>30.83272592844215</v>
       </c>
       <c r="C11">
-        <v>0.001332957987476192</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D11">
-        <v>1.140008946850006</v>
+        <v>5.130040260825022</v>
       </c>
       <c r="E11">
-        <v>1.22467359244913</v>
+        <v>5.511031166021081</v>
       </c>
       <c r="F11">
-        <v>0.1044086985388933</v>
+        <v>0.4698391434250198</v>
       </c>
       <c r="G11">
-        <v>4.316071593711079</v>
+        <v>19.42232217169985</v>
       </c>
       <c r="H11">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I11">
-        <v>13.65427531757399</v>
+        <v>61.44423892908298</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>6.155146765751853</v>
+        <v>27.69816044588333</v>
       </c>
       <c r="C12">
-        <v>0.003998873962428574</v>
+        <v>0.01799493283092858</v>
       </c>
       <c r="D12">
-        <v>1.005890247220593</v>
+        <v>4.526506112492672</v>
       </c>
       <c r="E12">
-        <v>1.061383780122579</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F12">
-        <v>0.09966284860530725</v>
+        <v>0.4484828187238827</v>
       </c>
       <c r="G12">
-        <v>2.284979079023512</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="H12">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I12">
-        <v>10.62712424973654</v>
+        <v>47.82205912381442</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>4.483378508387152</v>
+        <v>20.17520328774219</v>
       </c>
       <c r="C13">
-        <v>0.0008886386583174608</v>
+        <v>0.003998873962428573</v>
       </c>
       <c r="D13">
-        <v>0.8717715475911809</v>
+        <v>3.922971964160311</v>
       </c>
       <c r="E13">
-        <v>1.061383780122579</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F13">
-        <v>0.07593359893737696</v>
+        <v>0.3417011952181963</v>
       </c>
       <c r="G13">
-        <v>2.031092514687566</v>
+        <v>9.139916316094048</v>
       </c>
       <c r="H13">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I13">
-        <v>8.540511243434441</v>
+        <v>38.43230059545498</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>2.305013809396785</v>
+        <v>10.37256214228553</v>
       </c>
       <c r="C14">
-        <v>0.0004443193291587304</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D14">
-        <v>0.3352967490735309</v>
+        <v>1.508835370830889</v>
       </c>
       <c r="E14">
-        <v>0.69398170238784</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F14">
-        <v>0.05695019920303272</v>
+        <v>0.2562758964136472</v>
       </c>
       <c r="G14">
-        <v>0.7616596930078378</v>
+        <v>3.427468618535268</v>
       </c>
       <c r="I14">
-        <v>4.153346472398185</v>
+        <v>18.69005912579182</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.874406834014968</v>
+        <v>8.434830753067356</v>
       </c>
       <c r="C15">
-        <v>0.001555117652055557</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D15">
-        <v>0.5364747985176498</v>
+        <v>2.414136593329424</v>
       </c>
       <c r="E15">
-        <v>0.2449347184898259</v>
+        <v>1.102206233204217</v>
       </c>
       <c r="F15">
-        <v>0.1423754980075818</v>
+        <v>0.6406897410341179</v>
       </c>
       <c r="G15">
-        <v>1.26943282167973</v>
+        <v>5.71244769755878</v>
       </c>
       <c r="I15">
-        <v>4.069179788361811</v>
+        <v>18.31130904762814</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.532454235917642</v>
+        <v>6.896044061629393</v>
       </c>
       <c r="C16">
-        <v>0.001332957987476192</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="F16">
-        <v>0.06169604913661875</v>
+        <v>0.2776322211147844</v>
       </c>
       <c r="G16">
-        <v>1.26943282167973</v>
+        <v>5.71244769755878</v>
       </c>
       <c r="I16">
-        <v>2.864916064721466</v>
+        <v>12.8921222912466</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.8358841286823505</v>
+        <v>3.761478579070578</v>
       </c>
       <c r="C17">
-        <v>0.0002221596645793652</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D17">
-        <v>0.2011780494441186</v>
+        <v>0.9053012224985337</v>
       </c>
       <c r="F17">
-        <v>0.04271264940227454</v>
+        <v>0.1922069223102354</v>
       </c>
       <c r="G17">
-        <v>0.5077731286718916</v>
+        <v>2.284979079023512</v>
       </c>
       <c r="I17">
-        <v>1.587770115865215</v>
+        <v>7.144965521393467</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.658575374113367</v>
+        <v>2.963589183510151</v>
       </c>
       <c r="C18">
-        <v>0.0002221596645793652</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D18">
-        <v>0.06705934981470622</v>
+        <v>0.301767074166178</v>
       </c>
       <c r="F18">
-        <v>0.0237292496679303</v>
+        <v>0.1067816235056863</v>
       </c>
       <c r="G18">
-        <v>1.015546257343783</v>
+        <v>4.569958158047024</v>
       </c>
       <c r="I18">
-        <v>1.765132390604366</v>
+        <v>7.943095757719647</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.6332455520320839</v>
+        <v>2.849604984144376</v>
       </c>
       <c r="C19">
-        <v>0.001110798322896826</v>
+        <v>0.004998592453035716</v>
       </c>
       <c r="D19">
-        <v>0.1341186996294124</v>
+        <v>0.6035341483323561</v>
       </c>
       <c r="E19">
-        <v>0.1632898123265506</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F19">
-        <v>0.05695019920303272</v>
+        <v>0.2562758964136472</v>
       </c>
       <c r="G19">
-        <v>1.015546257343783</v>
+        <v>4.569958158047024</v>
       </c>
       <c r="I19">
-        <v>2.00426131885776</v>
+        <v>9.019175934859916</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>1.165171815739034</v>
+        <v>5.243273170825653</v>
       </c>
       <c r="C20">
-        <v>0.0004443193291587304</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="F20">
-        <v>0.05220434926944666</v>
+        <v>0.2349195717125099</v>
       </c>
       <c r="G20">
-        <v>2.284979079023512</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="I20">
-        <v>3.502799563361151</v>
+        <v>15.76259803512519</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>3.926122422598918</v>
+        <v>17.66755090169513</v>
       </c>
       <c r="C21">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D21">
-        <v>1.475305695923537</v>
+        <v>6.638875631655914</v>
       </c>
       <c r="E21">
-        <v>0.2449347184898259</v>
+        <v>1.102206233204217</v>
       </c>
       <c r="F21">
-        <v>0.1755964475426842</v>
+        <v>0.7901840139420789</v>
       </c>
       <c r="G21">
-        <v>2.284979079023512</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="H21">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I21">
-        <v>8.139730152672751</v>
+        <v>36.62878568702739</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>6.725067762580724</v>
+        <v>30.26280493161328</v>
       </c>
       <c r="C22">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D22">
-        <v>1.944721144626479</v>
+        <v>8.751245150819157</v>
       </c>
       <c r="E22">
-        <v>1.428785857857318</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F22">
-        <v>0.31322609561668</v>
+        <v>1.409517430275059</v>
       </c>
       <c r="G22">
-        <v>7.87048349441432</v>
+        <v>35.41717572486442</v>
       </c>
       <c r="H22">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I22">
-        <v>18.29901348913953</v>
+        <v>82.34556070112788</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>8.688128973880188</v>
+        <v>39.09658038246084</v>
       </c>
       <c r="C23">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D23">
-        <v>0.9388308974058867</v>
+        <v>4.224739038326488</v>
       </c>
       <c r="E23">
-        <v>1.306318498612405</v>
+        <v>5.878433243755819</v>
       </c>
       <c r="F23">
-        <v>0.1850881474098563</v>
+        <v>0.8328966633443535</v>
       </c>
       <c r="G23">
-        <v>4.062185029375133</v>
+        <v>18.2798326321881</v>
       </c>
       <c r="H23">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I23">
-        <v>15.21334333577774</v>
+        <v>68.46004501099982</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>8.422165842026715</v>
+        <v>37.89974628912019</v>
       </c>
       <c r="C24">
-        <v>0.003554554633269843</v>
+        <v>0.01599549584971429</v>
       </c>
       <c r="D24">
-        <v>1.609424395552949</v>
+        <v>7.24240977998827</v>
       </c>
       <c r="E24">
-        <v>1.143028686285855</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F24">
-        <v>0.2562758964136472</v>
+        <v>1.153241533861412</v>
       </c>
       <c r="G24">
-        <v>7.362710365742429</v>
+        <v>33.13219664584095</v>
       </c>
       <c r="H24">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I24">
-        <v>18.84534770580567</v>
+        <v>84.80406467612551</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>7.282323848368959</v>
+        <v>32.77045731766032</v>
       </c>
       <c r="C25">
-        <v>0.004887512620746035</v>
+        <v>0.02199380679335715</v>
       </c>
       <c r="D25">
-        <v>1.274127646479418</v>
+        <v>5.733574409157379</v>
       </c>
       <c r="E25">
-        <v>1.877832841755332</v>
+        <v>8.450247787898993</v>
       </c>
       <c r="F25">
-        <v>0.4603474435578477</v>
+        <v>2.071563496010315</v>
       </c>
       <c r="G25">
-        <v>7.362710365742429</v>
+        <v>33.13219664584095</v>
       </c>
       <c r="H25">
-        <v>0.1445638954524117</v>
+        <v>0.6505375295358525</v>
       </c>
       <c r="I25">
-        <v>18.40679355397714</v>
+        <v>82.83057099289715</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>6.14248185471121</v>
+        <v>27.64116834620044</v>
       </c>
       <c r="C26">
-        <v>0.003776714297849208</v>
+        <v>0.01699521434032143</v>
       </c>
       <c r="D26">
-        <v>1.609424395552949</v>
+        <v>7.24240977998827</v>
       </c>
       <c r="E26">
-        <v>0.9389164208776658</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F26">
-        <v>0.5172976427608805</v>
+        <v>2.327839392423963</v>
       </c>
       <c r="G26">
-        <v>17.51817293918025</v>
+        <v>78.8317782263112</v>
       </c>
       <c r="H26">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I26">
-        <v>26.77825793253161</v>
+        <v>120.5021606963923</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>5.800529256613883</v>
+        <v>26.10238165476247</v>
       </c>
       <c r="C27">
-        <v>0.005776151279063496</v>
+        <v>0.02599268075578573</v>
       </c>
       <c r="D27">
-        <v>1.609424395552949</v>
+        <v>7.24240977998827</v>
       </c>
       <c r="E27">
-        <v>0.8164490616327532</v>
+        <v>3.674020777347389</v>
       </c>
       <c r="F27">
-        <v>0.5647561420967407</v>
+        <v>2.541402639435335</v>
       </c>
       <c r="G27">
-        <v>15.99485355316459</v>
+        <v>71.97684098924061</v>
       </c>
       <c r="H27">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I27">
-        <v>24.82391387044052</v>
+        <v>111.7076124169823</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>5.737204701410676</v>
+        <v>25.81742115634805</v>
       </c>
       <c r="C28">
-        <v>0.002443756310373018</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="D28">
-        <v>0.9388308974058867</v>
+        <v>4.224739038326488</v>
       </c>
       <c r="E28">
-        <v>0.9797388739593037</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F28">
-        <v>0.3037343957495078</v>
+        <v>1.366804780872785</v>
       </c>
       <c r="G28">
-        <v>8.632143187422157</v>
+        <v>38.8446443433997</v>
       </c>
       <c r="H28">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I28">
-        <v>16.64228377740871</v>
+        <v>74.89027699833917</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>7.092350182759339</v>
+        <v>31.91557582241701</v>
       </c>
       <c r="C29">
-        <v>0.006886949601960322</v>
+        <v>0.03099127320882145</v>
       </c>
       <c r="D29">
-        <v>3.017670741661779</v>
+        <v>13.57951833747801</v>
       </c>
       <c r="E29">
-        <v>1.22467359244913</v>
+        <v>5.511031166021081</v>
       </c>
       <c r="F29">
-        <v>0.4983142430265361</v>
+        <v>2.242414093619413</v>
       </c>
       <c r="G29">
-        <v>12.94821478113323</v>
+        <v>58.26696651509955</v>
       </c>
       <c r="H29">
-        <v>0.1285012404021437</v>
+        <v>0.5782555818096466</v>
       </c>
       <c r="I29">
-        <v>24.91661173103412</v>
+        <v>112.1247527896535</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>6.319790609280191</v>
+        <v>28.43905774176087</v>
       </c>
       <c r="C30">
-        <v>0.003332394968690478</v>
+        <v>0.01499577735910715</v>
       </c>
       <c r="D30">
-        <v>2.414136593329424</v>
+        <v>10.8636146699824</v>
       </c>
       <c r="E30">
-        <v>0.6531592493062023</v>
+        <v>2.93921662187791</v>
       </c>
       <c r="F30">
-        <v>0.5552644422295688</v>
+        <v>2.498689990033059</v>
       </c>
       <c r="G30">
-        <v>6.347164108398641</v>
+        <v>28.56223848779391</v>
       </c>
       <c r="H30">
-        <v>0.06425062020107185</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I30">
-        <v>16.35709801771379</v>
+        <v>73.60694107971209</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>7.548286980222436</v>
+        <v>33.96729141100096</v>
       </c>
       <c r="C31">
-        <v>0.005776151279063496</v>
+        <v>0.02599268075578573</v>
       </c>
       <c r="D31">
-        <v>2.347077243514716</v>
+        <v>10.56184759581623</v>
       </c>
       <c r="E31">
-        <v>0.8164490616327532</v>
+        <v>3.674020777347389</v>
       </c>
       <c r="F31">
-        <v>0.4745849933586059</v>
+        <v>2.135632470113726</v>
       </c>
       <c r="G31">
-        <v>8.886029751758104</v>
+        <v>39.98713388291148</v>
       </c>
       <c r="H31">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I31">
-        <v>20.15851745701702</v>
+        <v>90.7133285565766</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>8.764118440124038</v>
+        <v>39.43853298055817</v>
       </c>
       <c r="C32">
-        <v>0.008219907589436514</v>
+        <v>0.0369895841524643</v>
       </c>
       <c r="D32">
-        <v>2.212958543885303</v>
+        <v>9.958313447483864</v>
       </c>
       <c r="E32">
-        <v>0.9797388739593037</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F32">
-        <v>0.3891596945540569</v>
+        <v>1.751218625493256</v>
       </c>
       <c r="G32">
-        <v>11.42489539511756</v>
+        <v>51.41202927802902</v>
       </c>
       <c r="H32">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I32">
-        <v>23.85940413048104</v>
+        <v>107.3673185871647</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>10.08126918835077</v>
+        <v>45.36571134757847</v>
       </c>
       <c r="C33">
-        <v>0.001999436981214287</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D33">
-        <v>1.0729495970353</v>
+        <v>4.828273186658849</v>
       </c>
       <c r="E33">
-        <v>0.8164490616327532</v>
+        <v>3.674020777347389</v>
       </c>
       <c r="F33">
-        <v>0.2515300464800611</v>
+        <v>1.131885209160276</v>
       </c>
       <c r="G33">
-        <v>4.82384472238297</v>
+        <v>21.70730125072336</v>
       </c>
       <c r="I33">
-        <v>17.04804205286306</v>
+        <v>76.71618923788381</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>10.46121651957002</v>
+        <v>47.07547433806509</v>
       </c>
       <c r="C34">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D34">
-        <v>0.9388308974058867</v>
+        <v>4.224739038326488</v>
       </c>
       <c r="E34">
-        <v>1.428785857857318</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F34">
-        <v>0.2562758964136472</v>
+        <v>1.153241533861412</v>
       </c>
       <c r="G34">
-        <v>1.77720595035162</v>
+        <v>7.997426776582295</v>
       </c>
       <c r="H34">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I34">
-        <v>14.89510691069277</v>
+        <v>67.02798109811744</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>7.320318581490886</v>
+        <v>32.94143361670898</v>
       </c>
       <c r="C35">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D35">
-        <v>0.8717715475911809</v>
+        <v>3.922971964160311</v>
       </c>
       <c r="E35">
-        <v>1.102206233204217</v>
+        <v>4.959928049418976</v>
       </c>
       <c r="F35">
-        <v>0.1328837981404097</v>
+        <v>0.5979770916318435</v>
       </c>
       <c r="G35">
-        <v>5.331617851054861</v>
+        <v>23.99228032974685</v>
       </c>
       <c r="H35">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I35">
-        <v>14.79158980057583</v>
+        <v>66.56215410259119</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>6.96570107235292</v>
+        <v>31.34565482558814</v>
       </c>
       <c r="C36">
-        <v>0.001332957987476192</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D36">
-        <v>0.6035341483323561</v>
+        <v>2.715903667495601</v>
       </c>
       <c r="E36">
-        <v>1.347140951694043</v>
+        <v>6.06213428262319</v>
       </c>
       <c r="F36">
-        <v>0.1139003984060654</v>
+        <v>0.5125517928272944</v>
       </c>
       <c r="G36">
-        <v>2.284979079023512</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="H36">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I36">
-        <v>11.34871391789691</v>
+        <v>51.06921263053609</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>4.913985483768971</v>
+        <v>22.11293467696036</v>
       </c>
       <c r="C37">
-        <v>0.0004443193291587304</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D37">
-        <v>0.7376528479617686</v>
+        <v>3.319437815827957</v>
       </c>
       <c r="E37">
-        <v>0.9797388739593037</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F37">
-        <v>0.1518671978747539</v>
+        <v>0.6834023904363926</v>
       </c>
       <c r="G37">
-        <v>2.538865643359459</v>
+        <v>11.42489539511756</v>
       </c>
       <c r="H37">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I37">
-        <v>9.35467967635395</v>
+        <v>42.09605854359276</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>2.532982208128336</v>
+        <v>11.3984199365775</v>
       </c>
       <c r="C38">
-        <v>0.0004443193291587304</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D38">
-        <v>0.3352967490735309</v>
+        <v>1.508835370830889</v>
       </c>
       <c r="E38">
-        <v>0.69398170238784</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F38">
-        <v>0.06644189907020483</v>
+        <v>0.2989885458159218</v>
       </c>
       <c r="G38">
-        <v>1.26943282167973</v>
+        <v>5.71244769755878</v>
       </c>
       <c r="I38">
-        <v>4.898579699668799</v>
+        <v>22.04360864850959</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>2.19102961003101</v>
+        <v>9.859633245139543</v>
       </c>
       <c r="C39">
-        <v>0.002443756310373018</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="D39">
-        <v>0.6035341483323561</v>
+        <v>2.715903667495601</v>
       </c>
       <c r="E39">
-        <v>0.1632898123265506</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F39">
-        <v>0.1044086985388933</v>
+        <v>0.4698391434250198</v>
       </c>
       <c r="G39">
-        <v>1.015546257343783</v>
+        <v>4.569958158047024</v>
       </c>
       <c r="I39">
-        <v>4.080252282882966</v>
+        <v>18.36113527297334</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.684433168405343</v>
+        <v>7.579949257824042</v>
       </c>
       <c r="C40">
-        <v>0.002443756310373018</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="F40">
-        <v>0.08067944887096298</v>
+        <v>0.3630575199193335</v>
       </c>
       <c r="G40">
-        <v>1.77720595035162</v>
+        <v>7.997426776582295</v>
       </c>
       <c r="I40">
-        <v>3.5447623239383</v>
+        <v>15.95143045772235</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>1.038522705332617</v>
+        <v>4.673352173996778</v>
       </c>
       <c r="C41">
-        <v>0.0002221596645793652</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D41">
-        <v>0.2011780494441186</v>
+        <v>0.9053012224985337</v>
       </c>
       <c r="F41">
-        <v>0.04271264940227454</v>
+        <v>0.1922069223102354</v>
       </c>
       <c r="G41">
-        <v>0.7616596930078378</v>
+        <v>3.427468618535268</v>
       </c>
       <c r="I41">
-        <v>2.044295256851427</v>
+        <v>9.199328655831422</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.8865437728449174</v>
+        <v>3.989446977802126</v>
       </c>
       <c r="C42">
-        <v>0.0002221596645793652</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D42">
-        <v>0.1341186996294124</v>
+        <v>0.6035341483323561</v>
       </c>
       <c r="F42">
-        <v>0.0237292496679303</v>
+        <v>0.1067816235056863</v>
       </c>
       <c r="G42">
-        <v>1.015546257343783</v>
+        <v>4.569958158047024</v>
       </c>
       <c r="I42">
-        <v>2.060160139150622</v>
+        <v>9.270720626177798</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.6459104630727249</v>
+        <v>2.906597083827263</v>
       </c>
       <c r="C43">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D43">
-        <v>0.1341186996294124</v>
+        <v>0.6035341483323561</v>
       </c>
       <c r="E43">
-        <v>0.08164490616327529</v>
+        <v>0.3674020777347387</v>
       </c>
       <c r="F43">
-        <v>0.04271264940227454</v>
+        <v>0.1922069223102354</v>
       </c>
       <c r="G43">
-        <v>1.523319386015676</v>
+        <v>6.854937237070536</v>
       </c>
       <c r="I43">
-        <v>2.428372583277101</v>
+        <v>10.92767662474695</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>1.152506904698393</v>
+        <v>5.186281071142763</v>
       </c>
       <c r="C44">
-        <v>0.0004443193291587304</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="F44">
-        <v>0.05695019920303272</v>
+        <v>0.2562758964136472</v>
       </c>
       <c r="G44">
-        <v>2.792752207695405</v>
+        <v>12.56738493462932</v>
       </c>
       <c r="I44">
-        <v>4.002653630925989</v>
+        <v>18.01194133916694</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>3.951452244680201</v>
+        <v>17.78153510106091</v>
       </c>
       <c r="C45">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D45">
-        <v>0.8047121977764744</v>
+        <v>3.621204889994135</v>
       </c>
       <c r="E45">
-        <v>0.2041122654081883</v>
+        <v>0.9185051943368472</v>
       </c>
       <c r="F45">
-        <v>0.2372924966793029</v>
+        <v>1.067816235056863</v>
       </c>
       <c r="G45">
-        <v>2.284979079023512</v>
+        <v>10.28240585560581</v>
       </c>
       <c r="H45">
-        <v>0.06425062020107185</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I45">
-        <v>7.547465382762489</v>
+        <v>33.96359422243122</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>6.940371250271637</v>
+        <v>31.23167062622235</v>
       </c>
       <c r="C46">
-        <v>0.0002221596645793652</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D46">
-        <v>1.274127646479418</v>
+        <v>5.733574409157379</v>
       </c>
       <c r="E46">
-        <v>1.428785857857318</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F46">
-        <v>0.3179719455502659</v>
+        <v>1.430873754976197</v>
       </c>
       <c r="G46">
-        <v>10.40934913777378</v>
+        <v>46.84207111998198</v>
       </c>
       <c r="H46">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I46">
-        <v>20.38689065264726</v>
+        <v>91.74100793691265</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>8.840107906367889</v>
+        <v>39.78048557865549</v>
       </c>
       <c r="C47">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D47">
-        <v>1.140008946850006</v>
+        <v>5.130040260825022</v>
       </c>
       <c r="E47">
-        <v>1.22467359244913</v>
+        <v>5.511031166021081</v>
       </c>
       <c r="F47">
-        <v>0.1661047476755121</v>
+        <v>0.7474713645398041</v>
       </c>
       <c r="G47">
-        <v>4.569958158047024</v>
+        <v>20.56481171121162</v>
       </c>
       <c r="H47">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I47">
-        <v>15.95758248543357</v>
+        <v>71.80912118445104</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>8.080213243929387</v>
+        <v>36.36095959768225</v>
       </c>
       <c r="C48">
-        <v>0.003776714297849208</v>
+        <v>0.01699521434032143</v>
       </c>
       <c r="D48">
-        <v>1.810602444997067</v>
+        <v>8.147711002486803</v>
       </c>
       <c r="E48">
-        <v>1.265496045530767</v>
+        <v>5.694732204888456</v>
       </c>
       <c r="F48">
-        <v>0.2657675962808193</v>
+        <v>1.195954183263687</v>
       </c>
       <c r="G48">
-        <v>6.601050672734589</v>
+        <v>29.70472802730565</v>
       </c>
       <c r="H48">
-        <v>0.06425062020107185</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I48">
-        <v>18.09115733797155</v>
+        <v>81.41020802087199</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>7.282323848368959</v>
+        <v>32.77045731766032</v>
       </c>
       <c r="C49">
-        <v>0.004887512620746035</v>
+        <v>0.02199380679335715</v>
       </c>
       <c r="D49">
-        <v>1.274127646479418</v>
+        <v>5.733574409157379</v>
       </c>
       <c r="E49">
-        <v>1.877832841755332</v>
+        <v>8.450247787898993</v>
       </c>
       <c r="F49">
-        <v>0.4603474435578477</v>
+        <v>2.071563496010315</v>
       </c>
       <c r="G49">
-        <v>7.362710365742429</v>
+        <v>33.13219664584095</v>
       </c>
       <c r="H49">
-        <v>0.1445638954524117</v>
+        <v>0.6505375295358525</v>
       </c>
       <c r="I49">
-        <v>18.40679355397714</v>
+        <v>82.83057099289715</v>
       </c>
     </row>
   </sheetData>
